--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="MIR" sheetId="1" r:id="rId1"/>
+    <sheet name="Meta Anual" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="135">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -283,30 +283,18 @@
     <t xml:space="preserve">Notificaciones </t>
   </si>
   <si>
-    <t xml:space="preserve">Flujo  LA MIR  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Inicio </t>
   </si>
   <si>
     <t xml:space="preserve">Programas Presupuestales </t>
   </si>
   <si>
-    <t>MIR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Busqueda Filtro </t>
   </si>
   <si>
     <t xml:space="preserve">Busqueda Filtro Institución </t>
   </si>
   <si>
-    <t xml:space="preserve">Filtro Por Estado de la Mir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encabezado </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fin  </t>
   </si>
   <si>
@@ -331,33 +319,9 @@
     <t xml:space="preserve">Enviar </t>
   </si>
   <si>
-    <t>Descarga plantilla</t>
-  </si>
-  <si>
     <t>Plataforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Añadir Registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descargar plantilla </t>
-  </si>
-  <si>
-    <t>Descarga la plantilla correctamente, El botón plantilla no se distingue, se ve como si fuera un título del apartado, agregar un tooltip descriptivo donde indique que es para descargar.</t>
-  </si>
-  <si>
-    <t>https://siednl.atlassian.net/browse/PBR-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check box Anticorrupción </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite seleccionar la opción anticorrupción </t>
-  </si>
-  <si>
-    <t>Selecciona correctamente / El check box anticorrupción ¿Dónde se refleja en el apartado en Resumen?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Busqueda de MIR </t>
   </si>
   <si>
@@ -391,9 +355,6 @@
     <t xml:space="preserve">Confirmar </t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / MIR </t>
-  </si>
-  <si>
     <t>Verificador</t>
   </si>
   <si>
@@ -409,9 +370,6 @@
     <t xml:space="preserve">Opciones Comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones Eliminar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Editar </t>
   </si>
   <si>
@@ -433,15 +391,9 @@
     <t>Autorizar MIR y el apartado de meta anual será habilitado</t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones / Descargar Mir </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la MIR </t>
   </si>
   <si>
-    <t xml:space="preserve">Cargar archivo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carga Archivo Correctamente </t>
   </si>
   <si>
@@ -472,36 +424,18 @@
     <t xml:space="preserve">Cancelación de Comentario </t>
   </si>
   <si>
-    <t xml:space="preserve">Descargar MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Recauda toda la información de la MIR </t>
   </si>
   <si>
     <t xml:space="preserve">Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar </t>
   </si>
   <si>
-    <t xml:space="preserve">Elimina registro </t>
-  </si>
-  <si>
-    <t>Edita el registro da pauta para enviar a usuarios correspondientes para autorización</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela registro </t>
   </si>
   <si>
     <t>Guardar como Borrador se almacena en el ménu principal de la MIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmación de la MIR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmación de la MIR para Autorizar y el apartado de meta anual será habilitado </t>
-  </si>
-  <si>
-    <t>Permite Eliminar el registro, una ves autorizado ya no se podra eliminar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edita el registro da pauta para enviar a usuarios correspondientes para autorización </t>
   </si>
   <si>
@@ -547,10 +481,43 @@
     <t xml:space="preserve">Meta Anual / Opciones / Comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">meta Anual / Opciones / Registra Meta Anula </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir visualizar, añadir y cancelar coemtarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permiter registrar Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcto  llenado de la información  correspondiente para la Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio / Meta Anual </t>
+  </si>
+  <si>
+    <t>Meta Anual / Opciones / Registra Meta Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmación Metal Anual enviada a autorización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones Registrar Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones Descargar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite Descargar el Registro una ves autorizado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita al uasuario correspondiete realizar modificación enviando comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmación de la Meta Anal para Autorizar y el apartado de Ficha Técnica será habilitado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flujo Meta Anual </t>
   </si>
 </sst>
 </file>
@@ -849,7 +816,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -894,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5231,7 +5201,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.560683796299" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="278">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="MIR"/>
+    <worksheetSource ref="A6:N1048576" sheet="Meta Anual"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -9759,76 +9729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -9948,8 +9849,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10126,9 +10027,78 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N263" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N263"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N258" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:N258"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -10395,11 +10365,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10421,94 +10391,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10565,10 +10535,10 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -10589,13 +10559,13 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
@@ -10616,16 +10586,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -10652,10 +10622,10 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
@@ -10679,13 +10649,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
@@ -10709,16 +10679,16 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -10733,22 +10703,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10760,22 +10730,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10787,22 +10757,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10811,25 +10781,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -10838,19 +10808,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -10865,19 +10835,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -10892,25 +10862,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -10919,1416 +10889,1279 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="1">
-        <v>45083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>110</v>
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>120</v>
+      <c r="I27" t="s">
+        <v>72</v>
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="I29" t="s">
-        <v>84</v>
-      </c>
+      <c r="H29"/>
+      <c r="I29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31"/>
+        <v>31</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="I31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31"/>
+        <v>78</v>
+      </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32"/>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
+      <c r="B35" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N47" s="1"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
         <v>88</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E53" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>56</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>58</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>59</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
+      <c r="B67" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="F67" t="s">
+        <v>76</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>62</v>
-      </c>
-      <c r="B68" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>77</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>63</v>
-      </c>
-      <c r="B69" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="B70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
         <v>64</v>
       </c>
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>66</v>
-      </c>
-      <c r="B72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>68</v>
-      </c>
-      <c r="B74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>127</v>
-      </c>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>69</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -12538,139 +12371,144 @@
     <row r="144" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J158" s="6"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J163" s="6"/>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J178" s="6"/>
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J179" s="6"/>
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J180" s="6"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J181" s="6"/>
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J182" s="6"/>
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J183" s="6"/>
+      <c r="J183" s="7"/>
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J184" s="6"/>
+      <c r="J184" s="7"/>
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J185" s="6"/>
+      <c r="J185" s="7"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J186" s="6"/>
+      <c r="J186" s="7"/>
       <c r="N186" s="1"/>
     </row>
     <row r="187" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J187" s="6"/>
+      <c r="J187" s="7"/>
       <c r="N187" s="1"/>
     </row>
     <row r="188" spans="10:14" x14ac:dyDescent="0.3">
@@ -12693,57 +12531,52 @@
       <c r="J192" s="7"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J193" s="7"/>
+    <row r="193" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J194" s="7"/>
+    <row r="194" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J195" s="7"/>
+    <row r="195" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J196" s="7"/>
+    <row r="196" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J197" s="7"/>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="10:14" x14ac:dyDescent="0.3">
@@ -12771,18 +12604,23 @@
       <c r="N216" s="1"/>
     </row>
     <row r="217" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J217" s="7"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J218" s="7"/>
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J219" s="7"/>
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J220" s="7"/>
       <c r="N220" s="1"/>
     </row>
     <row r="221" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J221" s="7"/>
       <c r="N221" s="1"/>
     </row>
     <row r="222" spans="10:14" x14ac:dyDescent="0.3">
@@ -12818,7 +12656,7 @@
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J230" s="7"/>
+      <c r="J230" s="6"/>
       <c r="N230" s="1"/>
     </row>
     <row r="231" spans="10:14" x14ac:dyDescent="0.3">
@@ -12838,7 +12676,7 @@
       <c r="N234" s="1"/>
     </row>
     <row r="235" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J235" s="6"/>
+      <c r="J235" s="7"/>
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="10:14" x14ac:dyDescent="0.3">
@@ -12866,23 +12704,18 @@
       <c r="N241" s="1"/>
     </row>
     <row r="242" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J242" s="7"/>
       <c r="N242" s="1"/>
     </row>
     <row r="243" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J243" s="7"/>
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J244" s="7"/>
       <c r="N244" s="1"/>
     </row>
     <row r="245" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J245" s="7"/>
       <c r="N245" s="1"/>
     </row>
     <row r="246" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J246" s="7"/>
       <c r="N246" s="1"/>
     </row>
     <row r="247" spans="10:14" x14ac:dyDescent="0.3">
@@ -12912,30 +12745,24 @@
     <row r="255" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="N256" s="1"/>
-    </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N257" s="1"/>
-    </row>
-    <row r="258" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N258" s="1"/>
-    </row>
     <row r="259" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N259" s="1"/>
     </row>
     <row r="260" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N260" s="1"/>
     </row>
+    <row r="261" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N261" s="1"/>
+    </row>
+    <row r="262" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N262" s="1"/>
+    </row>
+    <row r="263" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N263" s="1"/>
+    </row>
     <row r="264" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N264" s="1"/>
     </row>
-    <row r="265" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N265" s="1"/>
-    </row>
-    <row r="266" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N266" s="1"/>
-    </row>
     <row r="267" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N267" s="1"/>
     </row>
@@ -12945,6 +12772,12 @@
     <row r="269" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N269" s="1"/>
     </row>
+    <row r="270" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N270" s="1"/>
+    </row>
+    <row r="271" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N271" s="1"/>
+    </row>
     <row r="272" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N272" s="1"/>
     </row>
@@ -12970,27 +12803,12 @@
       <c r="N279" s="1"/>
     </row>
     <row r="280" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N280" s="1"/>
+      <c r="E280" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="281" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N281" s="1"/>
-    </row>
-    <row r="282" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N282" s="1"/>
-    </row>
-    <row r="283" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N283" s="1"/>
-    </row>
-    <row r="284" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N284" s="1"/>
-    </row>
-    <row r="285" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E285" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="286" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E286" t="s">
+      <c r="E281" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13006,12 +12824,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="M21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -13020,19 +12837,19 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K33:K287 K7:K30</xm:sqref>
+          <xm:sqref>K7:K28 K31:K282</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G33:G287 G7:G30</xm:sqref>
+          <xm:sqref>G7:G28 G31:G282</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L307</xm:sqref>
+          <xm:sqref>L7:L302</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="146">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -322,18 +322,9 @@
     <t>Plataforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Busqueda de MIR </t>
-  </si>
-  <si>
-    <t>Cancela la MIR</t>
-  </si>
-  <si>
     <t>Guardar como Borrador</t>
   </si>
   <si>
-    <t>Guarda borrador en los listados de MIR</t>
-  </si>
-  <si>
     <t>Capturador</t>
   </si>
   <si>
@@ -388,21 +379,12 @@
     <t xml:space="preserve">Autorizar </t>
   </si>
   <si>
-    <t>Autorizar MIR y el apartado de meta anual será habilitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carga Archivo Correctamente </t>
   </si>
   <si>
     <t xml:space="preserve">Captura de información </t>
   </si>
   <si>
-    <t xml:space="preserve">Correcto  llenado de la información  correspondiente para la MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela Confirmación </t>
   </si>
   <si>
@@ -415,27 +397,18 @@
     <t xml:space="preserve">Se agrega comentario correctamente </t>
   </si>
   <si>
-    <t>Confirmación de la MIR para revisión</t>
-  </si>
-  <si>
     <t>Se envia la confirmación al usuario verificador</t>
   </si>
   <si>
     <t xml:space="preserve">Cancelación de Comentario </t>
   </si>
   <si>
-    <t xml:space="preserve">Recauda toda la información de la MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar </t>
   </si>
   <si>
     <t xml:space="preserve">Cancela registro </t>
   </si>
   <si>
-    <t>Guardar como Borrador se almacena en el ménu principal de la MIR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edita el registro da pauta para enviar a usuarios correspondientes para autorización </t>
   </si>
   <si>
@@ -518,6 +491,66 @@
   </si>
   <si>
     <t xml:space="preserve">Flujo Meta Anual </t>
+  </si>
+  <si>
+    <t>Jose Angel Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Elizondo </t>
+  </si>
+  <si>
+    <t>Gerardo Flores</t>
+  </si>
+  <si>
+    <t>Jonathan Bustos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Caballero </t>
+  </si>
+  <si>
+    <t>Jose Serna</t>
+  </si>
+  <si>
+    <t>Marlon Méndez</t>
+  </si>
+  <si>
+    <t>Mayra Cortes</t>
+  </si>
+  <si>
+    <t>Noe Treviño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Zuñiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recauda toda la información de la Meta Anual </t>
+  </si>
+  <si>
+    <t>Busqueda de Meta Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancela la Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarda borrador en los listados de Meta Anual </t>
+  </si>
+  <si>
+    <t>Confirmación de la Meta Anual para revisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar como Borrador se almacena en el ménu principal de la Meta Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda </t>
+  </si>
+  <si>
+    <t>Autorizar la Meta Anual  y el apartado de Ficha Tecnica será habilitado</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1821,6 +1855,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1952,6 +1987,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2249,6 +2285,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2369,6 +2406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3128,6 +3166,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10369,7 +10408,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10467,7 +10506,7 @@
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="36" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
@@ -10535,10 +10574,10 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -10559,13 +10598,13 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
@@ -10592,10 +10631,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -10622,10 +10661,10 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
@@ -10652,10 +10691,10 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
@@ -10682,10 +10721,10 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>56</v>
@@ -10703,22 +10742,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10730,22 +10769,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10757,22 +10796,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10784,13 +10823,13 @@
         <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>58</v>
@@ -10799,7 +10838,7 @@
         <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -10811,13 +10850,13 @@
         <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>59</v>
@@ -10838,16 +10877,16 @@
         <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -10865,22 +10904,22 @@
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -10889,182 +10928,182 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>65</v>
@@ -11073,52 +11112,52 @@
         <v>31</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -11127,127 +11166,127 @@
         <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
         <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29"/>
       <c r="I29" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J29"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
         <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J30"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s">
         <v>42</v>
@@ -11256,46 +11295,46 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>22</v>
@@ -11304,22 +11343,22 @@
     </row>
     <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>22</v>
@@ -11328,211 +11367,211 @@
     </row>
     <row r="36" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>66</v>
@@ -11544,188 +11583,188 @@
     </row>
     <row r="45" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>22</v>
@@ -11734,22 +11773,22 @@
     </row>
     <row r="53" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>22</v>
@@ -11758,394 +11797,409 @@
     </row>
     <row r="54" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I58" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I62" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="N70" s="1"/>
     </row>
@@ -12964,10 +13018,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13024,6 +13078,59 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Meta Anual" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="67" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="209">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -412,9 +412,6 @@
     <t xml:space="preserve">Cerrar serión </t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / Configiraciones </t>
-  </si>
-  <si>
     <t xml:space="preserve">Muestra ventana principal de configuraciones </t>
   </si>
   <si>
@@ -439,12 +436,6 @@
     <t xml:space="preserve">Meta Anual / Opciones / Comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir visualizar, añadir y cancelar coemtarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permiter registrar Meta Anual </t>
-  </si>
-  <si>
     <t xml:space="preserve">Correcto  llenado de la información  correspondiente para la Meta Anual </t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t xml:space="preserve">Permite Descargar el Registro una ves autorizado </t>
   </si>
   <si>
-    <t xml:space="preserve">Solicita al uasuario correspondiete realizar modificación enviando comentarios </t>
-  </si>
-  <si>
     <t xml:space="preserve">Confirmación de la Meta Anal para Autorizar y el apartado de Ficha Técnica será habilitado </t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>Autorizar la Meta Anual  y el apartado de Ficha Tecnica será habilitado</t>
   </si>
   <si>
-    <t>Al cerrar sesión en la ip QA te direcciona a la ip de desarrollo (cual quiera de los tres usuarios usados)</t>
-  </si>
-  <si>
     <t>PBR-48</t>
   </si>
   <si>
@@ -550,9 +535,6 @@
     <t xml:space="preserve">Ingresar al usuario </t>
   </si>
   <si>
-    <t>Agregar botón Menú al momento de darle clic despliegue el menú inicio y todos los submenús / Adaptar fuentes iconos, tamaños, colores apegarse a las demás plataformas Añadir tooltips descriptivos</t>
-  </si>
-  <si>
     <t>PBR-49 PBR-50</t>
   </si>
   <si>
@@ -565,9 +547,6 @@
     <t xml:space="preserve">Cierra sesión correctamente </t>
   </si>
   <si>
-    <t>Usuario Capturador / SIEDNL / Inicio / Meta Anual Botón Búsqueda esta deshabilitado</t>
-  </si>
-  <si>
     <t>PBR-52</t>
   </si>
   <si>
@@ -577,33 +556,18 @@
     <t xml:space="preserve">Busqueda correcta por estado </t>
   </si>
   <si>
-    <t>Usuario Capturador / SIEDNL / Inicio / Meta Anual Botones Opciones Ajustar los botones de opciones de modo que estén horizontales. Ajustar colores</t>
-  </si>
-  <si>
     <t>PBR-53</t>
   </si>
   <si>
-    <t>Carga Archivo Correctamente / Inicio / Meta Anual / Fecha Creación Corresponde la fecha pero no la hora en la fecha creación del registro</t>
-  </si>
-  <si>
     <t>PBR-54</t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / Meta Anual / Fin Propósito Se repite dos veces el título del campo, ¿por que lleva signo al principio? Sugiero que si es un botón de ayuda contenga un tooltip </t>
-  </si>
-  <si>
     <t>PBR-55</t>
   </si>
   <si>
-    <t>Inicio / Meta Anual / Fin Propósito. Cambiar el diseño en los botones, Ajustar color de sombreado en las opciones de filtro</t>
-  </si>
-  <si>
     <t>PBR-56</t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio Meta Anual / Componentes Ajustar fuentes (Colores, número tamaño de fuente en los títulos ) Se repite dos veces el título del campo, ¿por que lleva un signo al principio? Cambia diseño en los botones, nicio / Meta Anual / Componentes / Mensaje de Alerta , Inicio / Meta Anual / Componentes / tooltip en inglés No option / Sin opciones Open / Abrir Close / Cerrar es muy pequeño, en este ejercicio no asigne los demás valore, Inicio / Meta Anual / Componentes / Ajustar color de sombreado en las opciones de filtro </t>
-  </si>
-  <si>
     <t>PBR-57  PBR-58 PBR-59 PBR-60</t>
   </si>
   <si>
@@ -616,27 +580,12 @@
     <t xml:space="preserve">* Agregar encabezado al documento*  *Agregar título al documento* </t>
   </si>
   <si>
-    <t xml:space="preserve"> *Cancelar ajustar diseño, cumple con la función*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *Borrador/ Guardar borrador ajustar diseño, no ejecuta la acción*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela confirmación del la solicitud </t>
   </si>
   <si>
-    <t>Verificador Inicio / Meta anual Botón Buscar deshabilitado</t>
-  </si>
-  <si>
     <t>Filtrado Correcto</t>
   </si>
   <si>
-    <t>Usuario Verificador / SIEDNL / Inicio / Meta Anual Botones Opciones Ajustar los botones de opciones de modo que estén horizontales. Ajustar colores</t>
-  </si>
-  <si>
-    <t>Usuario Autorizador / SIEDNL / Inicio / Meta Anual Botones Opciones Ajustar los botones de opciones de modo que estén horizontales. Ajustar colores</t>
-  </si>
-  <si>
     <t>PBR-65</t>
   </si>
   <si>
@@ -652,18 +601,9 @@
     <t>PBR-72</t>
   </si>
   <si>
-    <t xml:space="preserve">Dice borrador debería ser Guardar Borrador </t>
-  </si>
-  <si>
-    <t>Agregar botón Menú al momento de darle clic despliegue el menú inicio y todos los submenús / Adaptar fuentes iconos, tamaños, colores apegarse a las demás plataformas Añadir tooltips descriptivos / Usuario Verificador / SIEDNL / Inicio Meta Anual / Inicio Meta Anual Botón Notificación y Ayuda /  Botón de ayuda desalineado / Botón notificaciones / ver no direcciona al registro</t>
-  </si>
-  <si>
     <t>PBR-49 PBR-50 PBR-70</t>
   </si>
   <si>
-    <t>Verificador Inicio / Meta Anual / Añadir un comentarios / Al no añadir un comentario y darle clic en comentario muestra como si se hubiera añadido</t>
-  </si>
-  <si>
     <t>PBR-69</t>
   </si>
   <si>
@@ -673,21 +613,12 @@
     <t xml:space="preserve">Confirma Meta Anual </t>
   </si>
   <si>
-    <t>Trae un error al querer checar en el perfil Capturador la modificación de la meta Anual no permite abrir la petición en registrar la Meta Anual / Botón agregar modificación del perfil usuario verificador al capturador, en el perfil capturador no se visualiza que tenga algún cometario a menos que se abran las notificaciones, se sugiere agregar un botón donde te direccione al comentario asignado ya hay que buscar entre todas los registros y se pierde tiempo.</t>
-  </si>
-  <si>
     <t>PBR-73 PBR-68</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustar botones si permite dar acceso al registro / Verificador Inicio / Meta anual La hora no corresponde al momento de crear el regristro </t>
-  </si>
-  <si>
     <t>PBR-67</t>
   </si>
   <si>
-    <t xml:space="preserve">Presenta las mismas observaciones en los campos del perfil Verificador y Capturador con el botón busqueda esta deshabilitado </t>
-  </si>
-  <si>
     <t xml:space="preserve">Busqueda correcta por institución  </t>
   </si>
   <si>
@@ -703,21 +634,12 @@
     <t>PBR-74</t>
   </si>
   <si>
-    <t>Botón Cancelar ajustar color del diseño, no arroja mensaje de confirmación como ¡Meta Anual cancelada con éxito!</t>
-  </si>
-  <si>
     <t>PBR-75</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustar Botones Actializar diseños </t>
-  </si>
-  <si>
     <t>Checar la función de los check box esta inconclusa ya que no se reflejan donde estan las modificaciones efectuadas / Agregar un tooltip descriptivo que indique la ejecución del mismo.</t>
   </si>
   <si>
-    <t>*Adecuar los botones de uso en* *las ventanas de confirmación * *fuentes y color en los recuadros* Así somo el botón actualizar</t>
-  </si>
-  <si>
     <t>PBR-76</t>
   </si>
   <si>
@@ -725,6 +647,99 @@
   </si>
   <si>
     <t xml:space="preserve">Ajustar diseño en botones </t>
+  </si>
+  <si>
+    <t>Ingreso y salida correctamente</t>
+  </si>
+  <si>
+    <t>Filtrado correcto, estilo acorde</t>
+  </si>
+  <si>
+    <t>Agregar botón Menú al momento de darle clic despliegue el menú inicio y todos los submenús  / no se registran las notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio / Configuraciones </t>
+  </si>
+  <si>
+    <t>Busqueda corrrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir visualizar, añadir y cancelar comentarios </t>
+  </si>
+  <si>
+    <t>Icono ordenados y funcionando</t>
+  </si>
+  <si>
+    <t>Registro correcto, fecha correcta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite registrar Meta Anual </t>
+  </si>
+  <si>
+    <t>Correcto llenado, tooltip agregado</t>
+  </si>
+  <si>
+    <t>Correcto llenado de información y sombreado de opciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcto llenado de información y sombreado de opciones, tooltip agregado y estilo de iconos </t>
+  </si>
+  <si>
+    <t>Guarda Borrador</t>
+  </si>
+  <si>
+    <t>Cumple con la función</t>
+  </si>
+  <si>
+    <t>Realiza busqueda correcta</t>
+  </si>
+  <si>
+    <t>Opciones con estilo establecido y funcionalidad corrrecta</t>
+  </si>
+  <si>
+    <t>Hora corrergida, funcionaliidad correcta</t>
+  </si>
+  <si>
+    <t>Funcionalidad correcta, tooltip agregado</t>
+  </si>
+  <si>
+    <t>Estilo y diseño correcto, asi como funcionalidad</t>
+  </si>
+  <si>
+    <t>Estilo y diseño correcto, asi como funcionalidad, se agrego tooltip</t>
+  </si>
+  <si>
+    <t>Botón agregar modificación del perfil usuario verificador al capturador, en el perfil capturador no se visualiza que tenga algún comentario a menos que se abran las notificaciones, se sugiere agregar un botón donde te direccione al comentario asignado ya hay que buscar entre todas los registros y se pierde tiempo.</t>
+  </si>
+  <si>
+    <t>Dice borrador debería ser Guardar Borrador , funcionalidad correcta</t>
+  </si>
+  <si>
+    <t>Funcionalidad correcta</t>
+  </si>
+  <si>
+    <t>Funcionalidad correcta, esrilo de  iconos ok</t>
+  </si>
+  <si>
+    <t>Funcionalidad correcta, tooltip agregado, estilo ok</t>
+  </si>
+  <si>
+    <t>Funcionalidaad correcta, estilo ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita al usuario correspondiente realizar modificación enviando comentarios </t>
+  </si>
+  <si>
+    <t>Funcionalidad correcta, estilo ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar Botones Actualizar diseños </t>
+  </si>
+  <si>
+    <t>Funcionalidad y  estilo de icono correcta</t>
+  </si>
+  <si>
+    <t>no arroja mensaje de confirmación como ¡Meta Anual cancelada con éxito! Funcionalidad correcta</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1083,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1116,6 +1131,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,17 +1195,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1272,7 +1290,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual (Autoguardado).xlsx]GRAFICOS!Tabla dinámica1</c:name>
+    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual.xlsx]GRAFICOS!Tabla dinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1333,7 +1351,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1387,7 +1405,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1451,7 +1469,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1522,7 +1540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1593,7 +1611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1664,7 +1682,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1674,9 +1692,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1839,7 +1855,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1895,7 +1911,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1951,7 +1967,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1997,7 +2013,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2118,7 +2134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2155,7 +2171,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2190,7 +2206,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual (Autoguardado).xlsx]GRAFICOS!Tabla dinámica2</c:name>
+    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual.xlsx]GRAFICOS!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2246,7 +2262,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2431,7 +2447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2501,7 +2517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2544,7 +2560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2574,7 +2590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2609,7 +2625,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual (Autoguardado).xlsx]GRAFICOS!Tabla dinámica3</c:name>
+    <c:name>[Matiz de Pruebas SIEDNL - Meta Anual.xlsx]GRAFICOS!Tabla dinámica3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2665,7 +2681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3312,7 +3328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3382,7 +3398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3425,7 +3441,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3455,7 +3471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9972,7 +9988,192 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10141,191 +10342,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10611,9 +10627,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G6:G8"/>
+      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10635,94 +10651,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10768,7 +10784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10788,10 +10804,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>47</v>
@@ -10800,13 +10816,13 @@
         <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>142</v>
+        <v>42</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="N7" s="1">
         <v>45090</v>
@@ -10835,14 +10851,14 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10862,10 +10878,10 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>35</v>
@@ -10874,19 +10890,19 @@
         <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>146</v>
+        <v>42</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="N9" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -10918,10 +10934,10 @@
         <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>181</v>
+        <v>123</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="N10" s="1">
         <v>45090</v>
@@ -10998,28 +11014,28 @@
         <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="2">
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>148</v>
+      <c r="M13" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="N13" s="1">
         <v>45090</v>
@@ -11042,28 +11058,28 @@
         <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="2">
         <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="42" t="s">
-        <v>148</v>
+      <c r="M14" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="N14" s="1">
         <v>45090</v>
@@ -11086,21 +11102,21 @@
         <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="M15" s="26"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -11108,7 +11124,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -11120,25 +11136,25 @@
         <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J16" s="2">
         <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>151</v>
+        <v>42</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="N16" s="1">
         <v>45090</v>
@@ -11152,7 +11168,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -11167,7 +11183,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>21</v>
@@ -11182,7 +11198,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -11191,20 +11207,20 @@
         <v>67</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -11212,7 +11228,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -11221,42 +11237,42 @@
         <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="J19" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>155</v>
+        <v>42</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="N19" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -11265,39 +11281,39 @@
         <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="J20" s="2">
         <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>157</v>
+        <v>42</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="N20" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>56</v>
@@ -11312,36 +11328,36 @@
         <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J21" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>159</v>
+        <v>42</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="N21" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>57</v>
@@ -11356,36 +11372,36 @@
         <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J22" s="2">
         <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>161</v>
+        <v>42</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="N22" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="264" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>58</v>
@@ -11400,36 +11416,36 @@
         <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J23" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>163</v>
+        <v>42</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="N23" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>59</v>
@@ -11444,25 +11460,25 @@
         <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J24" s="2">
         <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>165</v>
+        <v>42</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="N24" s="1">
         <v>45090</v>
@@ -11473,7 +11489,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>60</v>
@@ -11491,19 +11507,19 @@
         <v>32</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>60</v>
@@ -11521,10 +11537,10 @@
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -11533,7 +11549,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>60</v>
@@ -11548,13 +11564,13 @@
         <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="s">
-        <v>135</v>
+        <v>190</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -11563,7 +11579,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>60</v>
@@ -11578,10 +11594,10 @@
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>68</v>
@@ -11593,7 +11609,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>60</v>
@@ -11611,7 +11627,7 @@
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>85</v>
@@ -11624,7 +11640,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>60</v>
@@ -11655,7 +11671,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>60</v>
@@ -11685,7 +11701,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>60</v>
@@ -11706,7 +11722,7 @@
         <v>89</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N32" s="1"/>
     </row>
@@ -11715,10 +11731,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
@@ -11730,25 +11746,25 @@
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>170</v>
+        <v>30</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J33" s="2">
         <v>91</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>174</v>
+        <v>42</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N33" s="1">
         <v>45090</v>
@@ -11759,10 +11775,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
@@ -11771,13 +11787,13 @@
         <v>74</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>21</v>
@@ -11789,10 +11805,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
@@ -11807,22 +11823,22 @@
         <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -11831,13 +11847,13 @@
         <v>74</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>91</v>
@@ -11846,27 +11862,27 @@
         <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="41" t="s">
-        <v>174</v>
+        <v>42</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N36" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
@@ -11875,39 +11891,39 @@
         <v>74</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J37" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
-      </c>
-      <c r="M37" s="41" t="s">
-        <v>189</v>
+        <v>42</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="N37" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -11925,19 +11941,19 @@
         <v>30</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -11955,19 +11971,19 @@
         <v>30</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="264" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -11985,10 +12001,10 @@
         <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -11997,7 +12013,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -12015,10 +12031,10 @@
         <v>30</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N41" s="1"/>
     </row>
@@ -12027,7 +12043,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -12045,10 +12061,10 @@
         <v>30</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -12057,7 +12073,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
@@ -12075,7 +12091,7 @@
         <v>32</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>92</v>
@@ -12084,24 +12100,24 @@
         <v>91</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L43" t="s">
         <v>39</v>
       </c>
-      <c r="M43" s="42" t="s">
-        <v>177</v>
+      <c r="M43" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="N43" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="231" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="165" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -12118,23 +12134,23 @@
       <c r="G44" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="H44" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="45" t="s">
         <v>62</v>
       </c>
       <c r="J44" s="2">
         <v>91</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s">
         <v>39</v>
       </c>
-      <c r="M44" s="42" t="s">
-        <v>187</v>
+      <c r="M44" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="N44" s="1">
         <v>45090</v>
@@ -12145,7 +12161,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -12163,22 +12179,22 @@
         <v>30</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J45" s="2">
         <v>91</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L45" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="42" t="s">
-        <v>178</v>
+      <c r="M45" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="N45" s="1">
         <v>45090</v>
@@ -12189,7 +12205,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -12206,8 +12222,8 @@
       <c r="I46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="42" t="s">
-        <v>183</v>
+      <c r="M46" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="N46" s="1">
         <v>45090</v>
@@ -12218,7 +12234,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -12236,12 +12252,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
@@ -12256,10 +12272,10 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>86</v>
@@ -12270,7 +12286,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -12288,7 +12304,7 @@
         <v>30</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>90</v>
@@ -12300,7 +12316,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -12318,22 +12334,22 @@
         <v>30</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
@@ -12345,25 +12361,25 @@
         <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J51" s="2">
         <v>91</v>
       </c>
       <c r="K51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L51" t="s">
-        <v>39</v>
-      </c>
-      <c r="M51" s="41" t="s">
-        <v>174</v>
+        <v>42</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N51" s="1">
         <v>45091</v>
@@ -12374,10 +12390,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>81</v>
@@ -12386,13 +12402,13 @@
         <v>82</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>21</v>
@@ -12404,10 +12420,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -12422,7 +12438,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>21</v>
@@ -12434,10 +12450,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -12446,28 +12462,28 @@
         <v>82</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -12482,7 +12498,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>91</v>
@@ -12494,10 +12510,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -12506,16 +12522,16 @@
         <v>82</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N56" s="1"/>
     </row>
@@ -12524,10 +12540,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -12542,19 +12558,19 @@
         <v>30</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -12569,36 +12585,36 @@
         <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J58" s="2">
         <v>91</v>
       </c>
       <c r="K58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M58" s="42" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="N58" s="1">
         <v>45091</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -12613,36 +12629,36 @@
         <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J59" s="2">
         <v>91</v>
       </c>
       <c r="K59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="42" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="M59" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="N59" s="1">
         <v>45091</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="264" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
@@ -12657,36 +12673,36 @@
         <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J60" s="2">
         <v>91</v>
       </c>
       <c r="K60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s">
-        <v>39</v>
-      </c>
-      <c r="M60" s="42" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="N60" s="1">
         <v>45091</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -12701,25 +12717,25 @@
         <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J61" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="42" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="M61" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="N61" s="1">
         <v>45091</v>
@@ -12730,7 +12746,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
@@ -12748,19 +12764,19 @@
         <v>30</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
@@ -12778,7 +12794,7 @@
         <v>30</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>95</v>
@@ -12787,13 +12803,13 @@
         <v>91</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L63" t="s">
         <v>39</v>
       </c>
-      <c r="M63" s="42" t="s">
-        <v>197</v>
+      <c r="M63" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="N63" s="1">
         <v>45091</v>
@@ -12804,7 +12820,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>60</v>
@@ -12819,7 +12835,10 @@
         <v>65</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>94</v>
@@ -12830,7 +12849,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
         <v>60</v>
@@ -12848,33 +12867,33 @@
         <v>32</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="J65" s="2">
         <v>91</v>
       </c>
       <c r="K65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L65" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="42" t="s">
-        <v>201</v>
+      <c r="M65" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="N65" s="1">
         <v>45091</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
@@ -12889,25 +12908,25 @@
         <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J66" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L66" t="s">
-        <v>39</v>
-      </c>
-      <c r="M66" s="42" t="s">
-        <v>202</v>
+        <v>42</v>
+      </c>
+      <c r="M66" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="N66" s="1">
         <v>45091</v>
@@ -12918,7 +12937,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
@@ -12936,7 +12955,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>69</v>
@@ -12948,7 +12967,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>60</v>
@@ -12966,7 +12985,7 @@
         <v>30</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>86</v>
@@ -12978,7 +12997,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
         <v>60</v>
@@ -12996,7 +13015,7 @@
         <v>30</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>90</v>
@@ -13008,7 +13027,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
         <v>60</v>
@@ -13026,10 +13045,10 @@
         <v>30</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N70" s="1"/>
     </row>
@@ -13781,7 +13800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -13945,57 +13964,57 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
